--- a/com.learncucumber/Reports/Report_Excel.xlsx
+++ b/com.learncucumber/Reports/Report_Excel.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\Ecommerce_Cucymber_Project\com.learncucumber\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\Ecommerce_Cucymber_Project\com.learncucumber\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63935F58-BF85-4BF2-9C9A-5B8CC0F972AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975B881-EE5D-449B-B94F-140BC73B59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
   <si>
     <t>Scenario</t>
   </si>
@@ -130,12 +130,34 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Given I am in my home page and I searched a product</t>
+  </si>
+  <si>
+    <t>When I click on the desired product</t>
+  </si>
+  <si>
+    <t>Then I can click on add to cart button</t>
+  </si>
+  <si>
+    <t>Verify if the user can Complete end to end ordering process</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,17 +481,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="76.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -635,6 +657,9 @@
       <c r="C19" t="s">
         <v>30</v>
       </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -642,13 +667,46 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="14">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B5:B9"/>
@@ -657,6 +715,12 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.learncucumber/Reports/Report_Excel.xlsx
+++ b/com.learncucumber/Reports/Report_Excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\Ecommerce_Cucymber_Project\com.learncucumber\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975B881-EE5D-449B-B94F-140BC73B59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94534DDC-DC74-438E-A3EB-13BE64C7A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ScappedData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
   <si>
     <t>Scenario</t>
   </si>
@@ -147,10 +148,199 @@
     <t>7</t>
   </si>
   <si>
+    <t>Given I open flipkart</t>
+  </si>
+  <si>
+    <t>When I search a product</t>
+  </si>
+  <si>
+    <t>Then I should be able to fetch all the brands and prices</t>
+  </si>
+  <si>
+    <t>Verify if the user can fetch all the details redgarding brand and price</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Allen Solly Analog Watch - For Women</t>
+  </si>
+  <si>
+    <t>₹2,399</t>
+  </si>
+  <si>
+    <t>Allen Solly Analog Watch - For Couple</t>
+  </si>
+  <si>
+    <t>₹2,175</t>
+  </si>
+  <si>
+    <t>₹1,052</t>
+  </si>
+  <si>
+    <t>Allen Solly Skinny Men Blue Jeans</t>
+  </si>
+  <si>
+    <t>₹1,931</t>
+  </si>
+  <si>
+    <t>Allen Solly Analog Watch - For Men</t>
+  </si>
+  <si>
+    <t>₹1,607</t>
+  </si>
+  <si>
+    <t>₹849</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Black T-Shirt</t>
+  </si>
+  <si>
+    <t>₹699</t>
+  </si>
+  <si>
+    <t>Allen Solly Slim Men Dark Blue Jeans</t>
+  </si>
+  <si>
+    <t>₹2,276</t>
+  </si>
+  <si>
+    <t>Allen Solly Boys Printed Cotton Blend T Shirt</t>
+  </si>
+  <si>
+    <t>₹319</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Maroon T-Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Men Casual Tan Genuine Leather Money Clip</t>
+  </si>
+  <si>
+    <t>₹499</t>
+  </si>
+  <si>
+    <t>Allen Solly Men Casual Black Genuine Leather Money Clip</t>
+  </si>
+  <si>
+    <t>₹629</t>
+  </si>
+  <si>
+    <t>₹1,753</t>
+  </si>
+  <si>
+    <t>₹734</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Green T-Shirt</t>
+  </si>
+  <si>
+    <t>₹1,461</t>
+  </si>
+  <si>
+    <t>Allen Solly Slim Men Blue Jeans</t>
+  </si>
+  <si>
+    <t>₹1,335</t>
+  </si>
+  <si>
+    <t>Allen Solly Skinny Men Dark Blue Jeans</t>
+  </si>
+  <si>
+    <t>₹2,606</t>
+  </si>
+  <si>
+    <t>Allen Solly Color Block Men Polo Neck Multicolor T-Shir...</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Multicolor T-Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Anti-Bacterial Men Self Design Casual White...</t>
+  </si>
+  <si>
+    <t>₹1,049</t>
+  </si>
+  <si>
+    <t>₹1,233</t>
+  </si>
+  <si>
+    <t>Allen Solly Boys Solid Polycotton T Shirt</t>
+  </si>
+  <si>
+    <t>₹1,267</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck White T-Shirt</t>
+  </si>
+  <si>
+    <t>₹799</t>
+  </si>
+  <si>
+    <t>Allen Solly Anti-Bacterial Men Solid Casual Pink Shirt</t>
+  </si>
+  <si>
+    <t>₹1,947</t>
+  </si>
+  <si>
+    <t>Allen Solly Boys Solid Pure Cotton T Shirt</t>
+  </si>
+  <si>
+    <t>₹689</t>
+  </si>
+  <si>
+    <t>Allen Solly Printed Men Polo Neck Dark Green T-Shirt</t>
+  </si>
+  <si>
+    <t>₹1,039</t>
+  </si>
+  <si>
+    <t>₹1,235</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Yellow T-Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Anti-Bacterial Men Solid Casual Green Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Full Sleeve Solid Men Sweatshirt</t>
+  </si>
+  <si>
+    <t>₹1,359</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Blue T-Shirt</t>
+  </si>
+  <si>
+    <t>₹2,268</t>
+  </si>
+  <si>
+    <t>Allen Solly Boys Self Design Casual Black Shirt</t>
+  </si>
+  <si>
+    <t>₹649</t>
+  </si>
+  <si>
+    <t>1. Allen Solly Solid Men Polo ...</t>
+  </si>
+  <si>
+    <t>2. Allen Solly Analog Watch -...</t>
+  </si>
+  <si>
+    <t>3. Allen Solly Boys Solid Pure...</t>
+  </si>
+  <si>
+    <t>4. Allen Solly Analog Watch -...</t>
+  </si>
+  <si>
+    <t>5. Allen Solly Solid Men Polo ...</t>
   </si>
 </sst>
 </file>
@@ -196,10 +386,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +727,7 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -545,29 +735,29 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -584,14 +774,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>16</v>
@@ -601,7 +791,7 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -609,17 +799,23 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,21 +829,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -658,20 +854,20 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -682,31 +878,73 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B5:B9"/>
@@ -715,13 +953,380 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/com.learncucumber/Reports/Report_Excel.xlsx
+++ b/com.learncucumber/Reports/Report_Excel.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\Ecommerce_Cucymber_Project\com.learncucumber\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94534DDC-DC74-438E-A3EB-13BE64C7A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99D4DC8-7C86-44B7-AF8E-37D5A89BA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ScappedData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Scenario</t>
   </si>
@@ -167,187 +166,12 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Allen Solly Analog Watch - For Women</t>
-  </si>
-  <si>
-    <t>₹2,399</t>
-  </si>
-  <si>
-    <t>Allen Solly Analog Watch - For Couple</t>
-  </si>
-  <si>
-    <t>₹2,175</t>
-  </si>
-  <si>
-    <t>₹1,052</t>
-  </si>
-  <si>
-    <t>Allen Solly Skinny Men Blue Jeans</t>
-  </si>
-  <si>
-    <t>₹1,931</t>
-  </si>
-  <si>
-    <t>Allen Solly Analog Watch - For Men</t>
-  </si>
-  <si>
-    <t>₹1,607</t>
-  </si>
-  <si>
-    <t>₹849</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck Black T-Shirt</t>
-  </si>
-  <si>
-    <t>₹699</t>
-  </si>
-  <si>
-    <t>Allen Solly Slim Men Dark Blue Jeans</t>
-  </si>
-  <si>
-    <t>₹2,276</t>
-  </si>
-  <si>
-    <t>Allen Solly Boys Printed Cotton Blend T Shirt</t>
-  </si>
-  <si>
-    <t>₹319</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck Maroon T-Shirt</t>
-  </si>
-  <si>
-    <t>Allen Solly Men Casual Tan Genuine Leather Money Clip</t>
-  </si>
-  <si>
-    <t>₹499</t>
-  </si>
-  <si>
-    <t>Allen Solly Men Casual Black Genuine Leather Money Clip</t>
-  </si>
-  <si>
-    <t>₹629</t>
-  </si>
-  <si>
-    <t>₹1,753</t>
-  </si>
-  <si>
-    <t>₹734</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck Green T-Shirt</t>
-  </si>
-  <si>
-    <t>₹1,461</t>
-  </si>
-  <si>
-    <t>Allen Solly Slim Men Blue Jeans</t>
-  </si>
-  <si>
-    <t>₹1,335</t>
-  </si>
-  <si>
-    <t>Allen Solly Skinny Men Dark Blue Jeans</t>
-  </si>
-  <si>
-    <t>₹2,606</t>
-  </si>
-  <si>
-    <t>Allen Solly Color Block Men Polo Neck Multicolor T-Shir...</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck Multicolor T-Shirt</t>
-  </si>
-  <si>
-    <t>Allen Solly Anti-Bacterial Men Self Design Casual White...</t>
-  </si>
-  <si>
-    <t>₹1,049</t>
-  </si>
-  <si>
-    <t>₹1,233</t>
-  </si>
-  <si>
-    <t>Allen Solly Boys Solid Polycotton T Shirt</t>
-  </si>
-  <si>
-    <t>₹1,267</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck White T-Shirt</t>
-  </si>
-  <si>
-    <t>₹799</t>
-  </si>
-  <si>
-    <t>Allen Solly Anti-Bacterial Men Solid Casual Pink Shirt</t>
-  </si>
-  <si>
-    <t>₹1,947</t>
-  </si>
-  <si>
-    <t>Allen Solly Boys Solid Pure Cotton T Shirt</t>
-  </si>
-  <si>
-    <t>₹689</t>
-  </si>
-  <si>
-    <t>Allen Solly Printed Men Polo Neck Dark Green T-Shirt</t>
-  </si>
-  <si>
-    <t>₹1,039</t>
-  </si>
-  <si>
-    <t>₹1,235</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck Yellow T-Shirt</t>
-  </si>
-  <si>
-    <t>Allen Solly Anti-Bacterial Men Solid Casual Green Shirt</t>
-  </si>
-  <si>
-    <t>Allen Solly Full Sleeve Solid Men Sweatshirt</t>
-  </si>
-  <si>
-    <t>₹1,359</t>
-  </si>
-  <si>
-    <t>Allen Solly Solid Men Polo Neck Blue T-Shirt</t>
-  </si>
-  <si>
-    <t>₹2,268</t>
-  </si>
-  <si>
-    <t>Allen Solly Boys Self Design Casual Black Shirt</t>
-  </si>
-  <si>
-    <t>₹649</t>
-  </si>
-  <si>
-    <t>1. Allen Solly Solid Men Polo ...</t>
-  </si>
-  <si>
-    <t>2. Allen Solly Analog Watch -...</t>
-  </si>
-  <si>
-    <t>3. Allen Solly Boys Solid Pure...</t>
-  </si>
-  <si>
-    <t>4. Allen Solly Analog Watch -...</t>
-  </si>
-  <si>
-    <t>5. Allen Solly Solid Men Polo ...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,14 +498,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="76.88671875" collapsed="true"/>
+    <col min="1" max="1" width="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -956,377 +780,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/com.learncucumber/Reports/Report_Excel.xlsx
+++ b/com.learncucumber/Reports/Report_Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumesh\git\Ecommerce_Cucymber_Project\com.learncucumber\Reports\"/>
     </mc:Choice>
@@ -14,10 +14,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ScappedData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
   <si>
     <t>Scenario</t>
   </si>
@@ -166,12 +167,175 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Allen Solly Analog Watch - For Couple</t>
+  </si>
+  <si>
+    <t>₹1,709</t>
+  </si>
+  <si>
+    <t>₹2,409</t>
+  </si>
+  <si>
+    <t>Allen Solly Analog Watch - For Women</t>
+  </si>
+  <si>
+    <t>₹879</t>
+  </si>
+  <si>
+    <t>Allen Solly Short For Girls Casual Printed Pure Cotton</t>
+  </si>
+  <si>
+    <t>₹409</t>
+  </si>
+  <si>
+    <t>Allen Solly Analog Watch - For Men</t>
+  </si>
+  <si>
+    <t>₹1,129</t>
+  </si>
+  <si>
+    <t>₹1,949</t>
+  </si>
+  <si>
+    <t>Allen Solly Full Sleeve Solid Men Sweatshirt</t>
+  </si>
+  <si>
+    <t>₹969</t>
+  </si>
+  <si>
+    <t>Allen Solly Short For Girls Casual Printed Cotton Blend</t>
+  </si>
+  <si>
+    <t>₹789</t>
+  </si>
+  <si>
+    <t>Allen Solly Slim Fit Men Brown Trousers</t>
+  </si>
+  <si>
+    <t>₹1,099</t>
+  </si>
+  <si>
+    <t>₹1,049</t>
+  </si>
+  <si>
+    <t>Allen Solly Short For Girls Casual Printed Rayon</t>
+  </si>
+  <si>
+    <t>₹489</t>
+  </si>
+  <si>
+    <t>Allen Solly Short For Girls Casual Striped Polyester</t>
+  </si>
+  <si>
+    <t>₹459</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Black T-Shirt</t>
+  </si>
+  <si>
+    <t>₹599</t>
+  </si>
+  <si>
+    <t>Allen Solly Printed Men Polo Neck Dark Blue T-Shirt</t>
+  </si>
+  <si>
+    <t>₹794</t>
+  </si>
+  <si>
+    <t>₹2,449</t>
+  </si>
+  <si>
+    <t>Allen Solly Men Striped Casual Dark Blue Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Short For Boys Casual Printed Pure Cotton</t>
+  </si>
+  <si>
+    <t>₹419</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck White T-Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Men Self Design Calf Length</t>
+  </si>
+  <si>
+    <t>₹429</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Light Blue T-Shirt</t>
+  </si>
+  <si>
+    <t>Allen Solly Full Sleeve Printed Boys Sweatshirt</t>
+  </si>
+  <si>
+    <t>₹659</t>
+  </si>
+  <si>
+    <t>Allen Solly Mens Cotton Hanky ["White"] Handkerchief</t>
+  </si>
+  <si>
+    <t>₹299</t>
+  </si>
+  <si>
+    <t>Allen Solly Solid Men Polo Neck Yellow T-Shirt</t>
+  </si>
+  <si>
+    <t>₹1,609</t>
+  </si>
+  <si>
+    <t>₹1,789</t>
+  </si>
+  <si>
+    <t>Allen Solly Men Checkered Casual Pink Shirt</t>
+  </si>
+  <si>
+    <t>₹1,309</t>
+  </si>
+  <si>
+    <t>Allen Solly Full Sleeve Graphic Print Men Sweatshirt</t>
+  </si>
+  <si>
+    <t>₹1,299</t>
+  </si>
+  <si>
+    <t>Allen Solly Full Sleeve Color Block Men Sweatshirt</t>
+  </si>
+  <si>
+    <t>₹1,214</t>
+  </si>
+  <si>
+    <t>₹2,439</t>
+  </si>
+  <si>
+    <t>₹2,669</t>
+  </si>
+  <si>
+    <t>1. Allen Solly Solid Men Polo ...</t>
+  </si>
+  <si>
+    <t>2. Allen Solly Solid Men Polo ...</t>
+  </si>
+  <si>
+    <t>Best from Allen Solly don't miss it, size is accurate as per description</t>
+  </si>
+  <si>
+    <t>3. Allen Solly Full Sleeve Gra...</t>
+  </si>
+  <si>
+    <t>4. Allen Solly Analog Watch -...</t>
+  </si>
+  <si>
+    <t>5. Allen Solly Men Checkered C...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,9 +667,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="76.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -756,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -780,4 +944,383 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>